--- a/example_sheet/example_input.xlsx
+++ b/example_sheet/example_input.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Data/Documents/Utah/Kladblok/20180822_CoA_EMA/20180122_EMA_Setup/20190513_SMS_EMA/02_TwilioWrapper/inputExample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Data/Documents/Utah/Kladblok/20180822_CoA_EMA/20180122_EMA_Setup/20190513_SMS_EMA/02_TwilioWrapper/example_sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A405D43-3111-124D-9099-98B37CE15889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C1287-140B-C143-A40B-9032A923F2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="2700" windowWidth="28720" windowHeight="18460" xr2:uid="{7257B9D4-EEBE-3241-A721-5648C55C60A1}"/>
+    <workbookView xWindow="9680" yWindow="2700" windowWidth="28720" windowHeight="18460" xr2:uid="{7257B9D4-EEBE-3241-A721-5648C55C60A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MyData" localSheetId="0">Sheet1!$F$5:$H$18</definedName>
+    <definedName name="MyData" localSheetId="0">Sheet1!$D$5:$F$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,15 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Stacked</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>Fill out UofU survey now: https://survey.az1.qualtrics.com/jfe/form/SV_0BYgLTvWc0uahF3?Q_DL=bxQcobI4p8SC7tP_0BYgLTvWc0uahF3_MLRP_8nN1IIyZfIzF0xv&amp;Q_CHL=gl</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -49,6 +40,15 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Hello, how are you?</t>
   </si>
 </sst>
 </file>
@@ -423,47 +423,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77A7954-C76F-C445-8D73-A7951CC38CA0}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="142.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>7204774616</v>
+        <v>1234567890</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7343558196</v>
+        <v>1123456789</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -471,7 +468,7 @@
         <v>43577.919560185182</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/example_sheet/example_input.xlsx
+++ b/example_sheet/example_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Data/Documents/Utah/Kladblok/20180822_CoA_EMA/20180122_EMA_Setup/20190513_SMS_EMA/02_TwilioWrapper/example_sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C1287-140B-C143-A40B-9032A923F2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9489A6E1-701B-334E-8027-E589A56578D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="2700" windowWidth="28720" windowHeight="18460" xr2:uid="{7257B9D4-EEBE-3241-A721-5648C55C60A1}"/>
+    <workbookView xWindow="7580" yWindow="1220" windowWidth="28720" windowHeight="18460" xr2:uid="{7257B9D4-EEBE-3241-A721-5648C55C60A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>subject</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>from</t>
   </si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>Hello, how are you?</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>This is an automated message</t>
   </si>
 </sst>
 </file>
@@ -81,12 +84,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,10 +153,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,51 +505,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1123456789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44012.385763888888</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43577.919560185182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="9">
+        <v>44012.645949074074</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
